--- a/pred_ohlcv/54_21/2020-01-25 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 TRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-767025.4472660904</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-767025.4472660904</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-761936.3887660904</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-761936.3887660904</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-608987.3194660904</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-685420.9804660904</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1021454.19966609</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-942454.1996660903</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-942454.1996660903</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-945003.0181660904</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-918686.7895924103</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-868686.7895924103</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-868686.7895924103</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1014782.17679241</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3718840.573500451</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-3915015.205900451</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3915015.205900451</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3914215.205900451</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3939792.495900451</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-4011221.792000451</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4009656.846800451</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-4021854.650500451</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-4021854.650500451</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4068559.980900451</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4065783.943800451</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4105903.147100451</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-4085706.994500451</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-4085706.994500451</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-4085706.994500451</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-4085706.994500451</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-4132761.895800451</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-4163741.694100451</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-4103668.498700451</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-9756492.346147561</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-9582756.885247562</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-9728069.246147562</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-9501963.102335092</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-12185407.71514946</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-12231185.01484946</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-12231135.01484946</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-12231135.01484946</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-12231135.01484946</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-11837690.65404946</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-11941536.02784946</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-12005042.82704946</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-12004771.97114481</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-12303871.97114481</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-12303871.97114481</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-12336180.22264481</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-12610954.52684481</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-12352670.08199544</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-12681512.31539544</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-12686497.36019544</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-12673997.36019544</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-12941653.94729544</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-12344075.05932897</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-12391012.59302897</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-12291012.59302897</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-12288080.99622897</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-12785100.06332897</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-12705200.06332897</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-12905200.06332897</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-13215371.04272897</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-13211577.47142897</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-12515616.13246583</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 TRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-767025.4472660904</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-767025.4472660904</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-761936.3887660904</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-761936.3887660904</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-608987.3194660904</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-685420.9804660904</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1021454.19966609</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-942454.1996660903</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-945003.0181660904</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-918686.7895924103</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-868686.7895924103</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-868686.7895924103</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1014782.17679241</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1051604.67249241</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3718840.573500451</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-3915015.205900451</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3915015.205900451</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3914215.205900451</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3939792.495900451</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-4011221.792000451</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4009656.846800451</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-4021854.650500451</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-4021854.650500451</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4068559.980900451</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4065783.943800451</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4105903.147100451</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-4085706.994500451</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-4085706.994500451</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-4085706.994500451</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-4085706.994500451</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-4132761.895800451</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-4163741.694100451</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-4103668.498700451</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-4103668.498700451</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-4085620.08465925</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-4148672.7308453</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-9756492.346147561</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-9582756.885247562</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-9728069.246147562</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-9501963.102335092</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-12185407.71514946</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-12231185.01484946</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-12231135.01484946</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-12231135.01484946</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-12231135.01484946</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-11837690.65404946</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-11941536.02784946</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-12005042.82704946</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-12004771.97114481</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-12303871.97114481</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-12303871.97114481</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-12336180.22264481</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-12610954.52684481</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-12368154.52684481</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-12368154.52684481</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-12367799.64274481</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-12402704.20534481</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-12402295.33074481</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-12509315.57674481</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-12509315.57674481</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-12409220.11974481</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-12405058.04734481</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-12352670.08199544</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-12681512.31539544</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-12686497.36019544</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-12673997.36019544</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-12941653.94729544</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-12784096.60503905</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-12784096.60503905</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-12344075.05932897</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-12391012.59302897</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-12291012.59302897</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-12288080.99622897</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-12785100.06332897</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-12705200.06332897</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-12905200.06332897</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-13215371.04272897</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-13211577.47142897</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-12515616.13246583</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-13193586.64863853</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
